--- a/Assignment2/Group35.xlsx
+++ b/Assignment2/Group35.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fos van der Meer\Documents\Uni\TIL\AE4423\Assignment 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fos van der Meer\Documents\Uni\TIL\AE4423\Assignments\AE4423\Assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483AB9ED-F279-4D72-AC48-285408C4E46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A840B8-7523-4372-87EA-93810E5849A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{883722A1-D30E-6348-BEC2-547431745F40}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{883722A1-D30E-6348-BEC2-547431745F40}"/>
   </bookViews>
   <sheets>
     <sheet name="Group 35" sheetId="1" r:id="rId1"/>

--- a/Assignment2/Group35.xlsx
+++ b/Assignment2/Group35.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fos van der Meer\Documents\Uni\TIL\AE4423\Assignment 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giel\PycharmProjects\AE4423\Assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483AB9ED-F279-4D72-AC48-285408C4E46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC51631-56C6-4B8E-9D59-6E80BB2DA1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{883722A1-D30E-6348-BEC2-547431745F40}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{883722A1-D30E-6348-BEC2-547431745F40}"/>
   </bookViews>
   <sheets>
     <sheet name="Group 35" sheetId="1" r:id="rId1"/>
@@ -198,7 +198,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -534,7 +534,7 @@
   <dimension ref="A2:AG405"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
